--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,42 +52,42 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -97,15 +97,18 @@
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -118,27 +121,24 @@
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -154,28 +154,22 @@
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -556,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.828125</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6881720430107527</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.65625</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.6226415094339622</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6545454545454545</v>
+        <v>0.640625</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.5380200860832137</v>
+        <v>0.5423242467718795</v>
       </c>
       <c r="L8">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M8">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6351351351351351</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6067961165048543</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5546218487394958</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.4467213114754098</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L11">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M11">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4811594202898551</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.3669724770642202</v>
+        <v>0.35</v>
       </c>
       <c r="L12">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>207</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4210526315789473</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4015748031496063</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.3192771084337349</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3855421686746988</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3744075829383886</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>0.234375</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3359375</v>
+        <v>0.3515625</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>0.2167832167832168</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3258426966292135</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18">
-        <v>0.2043010752688172</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>148</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2920792079207921</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K19">
-        <v>0.1967871485943775</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2525773195876289</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C20">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.1473684210526316</v>
+        <v>0.08382066276803118</v>
       </c>
       <c r="L20">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="M20">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>972</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,31 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>230</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21">
-        <v>0.1042780748663102</v>
-      </c>
-      <c r="L21">
-        <v>39</v>
-      </c>
-      <c r="M21">
-        <v>39</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>335</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1564,49 +1534,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1642651296829971</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>290</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22">
-        <v>0.08506493506493507</v>
-      </c>
-      <c r="L22">
-        <v>131</v>
-      </c>
-      <c r="M22">
-        <v>132</v>
-      </c>
-      <c r="N22">
-        <v>0.99</v>
-      </c>
-      <c r="O22">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1409</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1614,13 +1560,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1613924050632911</v>
+        <v>0.17</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1632,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>265</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1640,13 +1586,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1454005934718101</v>
+        <v>0.1661721068249258</v>
       </c>
       <c r="C24">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1658,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1666,13 +1612,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1360759493670886</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1684,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1692,25 +1638,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1278195488721804</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1718,25 +1664,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1101321585903084</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>404</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1744,13 +1690,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07349665924276169</v>
+        <v>0.1035242290748899</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1762,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1770,25 +1716,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.06260296540362438</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>569</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1796,25 +1742,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03698979591836735</v>
+        <v>0.04331210191082802</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="F30">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
